--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Calr-Scarf1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Calr-Scarf1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>81.03634266666667</v>
+        <v>68.443746</v>
       </c>
       <c r="H2">
-        <v>243.109028</v>
+        <v>205.331238</v>
       </c>
       <c r="I2">
-        <v>0.1632931649012984</v>
+        <v>0.1596169534001499</v>
       </c>
       <c r="J2">
-        <v>0.1632931649012984</v>
+        <v>0.1596169534001499</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.575242333333334</v>
+        <v>19.001083</v>
       </c>
       <c r="N2">
-        <v>28.725727</v>
+        <v>57.003249</v>
       </c>
       <c r="O2">
-        <v>0.6572152168068958</v>
+        <v>0.8080995339289322</v>
       </c>
       <c r="P2">
-        <v>0.6572152168068958</v>
+        <v>0.8080995339289322</v>
       </c>
       <c r="Q2">
-        <v>775.9426188403729</v>
+        <v>1300.505298576918</v>
       </c>
       <c r="R2">
-        <v>6983.483569563356</v>
+        <v>11704.54768719226</v>
       </c>
       <c r="S2">
-        <v>0.107318752773691</v>
+        <v>0.1289863856498172</v>
       </c>
       <c r="T2">
-        <v>0.107318752773691</v>
+        <v>0.1289863856498172</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>81.03634266666667</v>
+        <v>68.443746</v>
       </c>
       <c r="H3">
-        <v>243.109028</v>
+        <v>205.331238</v>
       </c>
       <c r="I3">
-        <v>0.1632931649012984</v>
+        <v>0.1596169534001499</v>
       </c>
       <c r="J3">
-        <v>0.1632931649012984</v>
+        <v>0.1596169534001499</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>1.03026</v>
       </c>
       <c r="O3">
-        <v>0.0235712937488918</v>
+        <v>0.01460535391282033</v>
       </c>
       <c r="P3">
-        <v>0.0235712937488918</v>
+        <v>0.01460535391282033</v>
       </c>
       <c r="Q3">
-        <v>27.82950079858667</v>
+        <v>23.50495125132</v>
       </c>
       <c r="R3">
-        <v>250.46550718728</v>
+        <v>211.54456126188</v>
       </c>
       <c r="S3">
-        <v>0.003849031157074732</v>
+        <v>0.00233126209489534</v>
       </c>
       <c r="T3">
-        <v>0.003849031157074732</v>
+        <v>0.00233126209489534</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>81.03634266666667</v>
+        <v>68.443746</v>
       </c>
       <c r="H4">
-        <v>243.109028</v>
+        <v>205.331238</v>
       </c>
       <c r="I4">
-        <v>0.1632931649012984</v>
+        <v>0.1596169534001499</v>
       </c>
       <c r="J4">
-        <v>0.1632931649012984</v>
+        <v>0.1596169534001499</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.672381666666667</v>
+        <v>2.073241</v>
       </c>
       <c r="N4">
-        <v>5.017145000000001</v>
+        <v>6.219723</v>
       </c>
       <c r="O4">
-        <v>0.1147871397276258</v>
+        <v>0.08817313654291985</v>
       </c>
       <c r="P4">
-        <v>0.1147871397276258</v>
+        <v>0.08817313654291985</v>
       </c>
       <c r="Q4">
-        <v>135.5236938094511</v>
+        <v>141.900380400786</v>
       </c>
       <c r="R4">
-        <v>1219.71324428506</v>
+        <v>1277.103423607074</v>
       </c>
       <c r="S4">
-        <v>0.01874395533609158</v>
+        <v>0.01407392742671629</v>
       </c>
       <c r="T4">
-        <v>0.01874395533609158</v>
+        <v>0.01407392742671629</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>81.03634266666667</v>
+        <v>68.443746</v>
       </c>
       <c r="H5">
-        <v>243.109028</v>
+        <v>205.331238</v>
       </c>
       <c r="I5">
-        <v>0.1632931649012984</v>
+        <v>0.1596169534001499</v>
       </c>
       <c r="J5">
-        <v>0.1632931649012984</v>
+        <v>0.1596169534001499</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.978372666666667</v>
+        <v>2.095551333333333</v>
       </c>
       <c r="N5">
-        <v>8.935117999999999</v>
+        <v>6.286654</v>
       </c>
       <c r="O5">
-        <v>0.2044263497165867</v>
+        <v>0.08912197561532777</v>
       </c>
       <c r="P5">
-        <v>0.2044263497165867</v>
+        <v>0.08912197561532777</v>
       </c>
       <c r="Q5">
-        <v>241.3564280050338</v>
+        <v>143.427383188628</v>
       </c>
       <c r="R5">
-        <v>2172.207852045304</v>
+        <v>1290.846448697652</v>
       </c>
       <c r="S5">
-        <v>0.03338142563444108</v>
+        <v>0.01422537822872107</v>
       </c>
       <c r="T5">
-        <v>0.03338142563444108</v>
+        <v>0.01422537822872107</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>535.097442</v>
       </c>
       <c r="I6">
-        <v>0.3594179761796791</v>
+        <v>0.4159650732941736</v>
       </c>
       <c r="J6">
-        <v>0.3594179761796791</v>
+        <v>0.4159650732941736</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>9.575242333333334</v>
+        <v>19.001083</v>
       </c>
       <c r="N6">
-        <v>28.725727</v>
+        <v>57.003249</v>
       </c>
       <c r="O6">
-        <v>0.6572152168068958</v>
+        <v>0.8080995339289322</v>
       </c>
       <c r="P6">
-        <v>0.6572152168068958</v>
+        <v>0.8080995339289322</v>
       </c>
       <c r="Q6">
-        <v>1707.895893032259</v>
+        <v>3389.143636176562</v>
       </c>
       <c r="R6">
-        <v>15371.06303729033</v>
+        <v>30502.29272558906</v>
       </c>
       <c r="S6">
-        <v>0.2362149631392235</v>
+        <v>0.3361411818597358</v>
       </c>
       <c r="T6">
-        <v>0.2362149631392235</v>
+        <v>0.3361411818597358</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>535.097442</v>
       </c>
       <c r="I7">
-        <v>0.3594179761796791</v>
+        <v>0.4159650732941736</v>
       </c>
       <c r="J7">
-        <v>0.3594179761796791</v>
+        <v>0.4159650732941736</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>1.03026</v>
       </c>
       <c r="O7">
-        <v>0.0235712937488918</v>
+        <v>0.01460535391282033</v>
       </c>
       <c r="P7">
-        <v>0.0235712937488918</v>
+        <v>0.01460535391282033</v>
       </c>
       <c r="Q7">
         <v>61.25438784388</v>
@@ -883,10 +883,10 @@
         <v>551.2894905949199</v>
       </c>
       <c r="S7">
-        <v>0.008471946695163411</v>
+        <v>0.006075317110833655</v>
       </c>
       <c r="T7">
-        <v>0.008471946695163414</v>
+        <v>0.006075317110833654</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>535.097442</v>
       </c>
       <c r="I8">
-        <v>0.3594179761796791</v>
+        <v>0.4159650732941736</v>
       </c>
       <c r="J8">
-        <v>0.3594179761796791</v>
+        <v>0.4159650732941736</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.672381666666667</v>
+        <v>2.073241</v>
       </c>
       <c r="N8">
-        <v>5.017145000000001</v>
+        <v>6.219723</v>
       </c>
       <c r="O8">
-        <v>0.1147871397276258</v>
+        <v>0.08817313654291985</v>
       </c>
       <c r="P8">
-        <v>0.1147871397276258</v>
+        <v>0.08817313654291985</v>
       </c>
       <c r="Q8">
-        <v>298.2957172936767</v>
+        <v>369.795318583174</v>
       </c>
       <c r="R8">
-        <v>2684.66145564309</v>
+        <v>3328.157867248566</v>
       </c>
       <c r="S8">
-        <v>0.04125656145235731</v>
+        <v>0.03667694520465283</v>
       </c>
       <c r="T8">
-        <v>0.04125656145235732</v>
+        <v>0.03667694520465283</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>535.097442</v>
       </c>
       <c r="I9">
-        <v>0.3594179761796791</v>
+        <v>0.4159650732941736</v>
       </c>
       <c r="J9">
-        <v>0.3594179761796791</v>
+        <v>0.4159650732941736</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.978372666666667</v>
+        <v>2.095551333333333</v>
       </c>
       <c r="N9">
-        <v>8.935117999999999</v>
+        <v>6.286654</v>
       </c>
       <c r="O9">
-        <v>0.2044263497165867</v>
+        <v>0.08912197561532777</v>
       </c>
       <c r="P9">
-        <v>0.2044263497165867</v>
+        <v>0.08912197561532777</v>
       </c>
       <c r="Q9">
-        <v>531.2398650853506</v>
+        <v>373.7747193487853</v>
       </c>
       <c r="R9">
-        <v>4781.158785768155</v>
+        <v>3363.972474139068</v>
       </c>
       <c r="S9">
-        <v>0.07347450489293489</v>
+        <v>0.03707162911895137</v>
       </c>
       <c r="T9">
-        <v>0.07347450489293492</v>
+        <v>0.03707162911895137</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>90.63043199999998</v>
+        <v>88.88346833333333</v>
       </c>
       <c r="H10">
-        <v>271.891296</v>
+        <v>266.650405</v>
       </c>
       <c r="I10">
-        <v>0.1826258391068707</v>
+        <v>0.2072842188241036</v>
       </c>
       <c r="J10">
-        <v>0.1826258391068707</v>
+        <v>0.2072842188241036</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>9.575242333333334</v>
+        <v>19.001083</v>
       </c>
       <c r="N10">
-        <v>28.725727</v>
+        <v>57.003249</v>
       </c>
       <c r="O10">
-        <v>0.6572152168068958</v>
+        <v>0.8080995339289322</v>
       </c>
       <c r="P10">
-        <v>0.6572152168068958</v>
+        <v>0.8080995339289322</v>
       </c>
       <c r="Q10">
-        <v>867.8083491746879</v>
+        <v>1688.882159129538</v>
       </c>
       <c r="R10">
-        <v>7810.275142572191</v>
+        <v>15199.93943216585</v>
       </c>
       <c r="S10">
-        <v>0.1200244804431633</v>
+        <v>0.1675062806225809</v>
       </c>
       <c r="T10">
-        <v>0.1200244804431633</v>
+        <v>0.1675062806225809</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>90.63043199999998</v>
+        <v>88.88346833333333</v>
       </c>
       <c r="H11">
-        <v>271.891296</v>
+        <v>266.650405</v>
       </c>
       <c r="I11">
-        <v>0.1826258391068707</v>
+        <v>0.2072842188241036</v>
       </c>
       <c r="J11">
-        <v>0.1826258391068707</v>
+        <v>0.2072842188241036</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>1.03026</v>
       </c>
       <c r="O11">
-        <v>0.0235712937488918</v>
+        <v>0.01460535391282033</v>
       </c>
       <c r="P11">
-        <v>0.0235712937488918</v>
+        <v>0.01460535391282033</v>
       </c>
       <c r="Q11">
-        <v>31.12430295743999</v>
+        <v>30.52436069503333</v>
       </c>
       <c r="R11">
-        <v>280.1187266169599</v>
+        <v>274.7192462553</v>
       </c>
       <c r="S11">
-        <v>0.0043047272997259</v>
+        <v>0.003027459376468527</v>
       </c>
       <c r="T11">
-        <v>0.004304727299725902</v>
+        <v>0.003027459376468527</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>90.63043199999998</v>
+        <v>88.88346833333333</v>
       </c>
       <c r="H12">
-        <v>271.891296</v>
+        <v>266.650405</v>
       </c>
       <c r="I12">
-        <v>0.1826258391068707</v>
+        <v>0.2072842188241036</v>
       </c>
       <c r="J12">
-        <v>0.1826258391068707</v>
+        <v>0.2072842188241036</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.672381666666667</v>
+        <v>2.073241</v>
       </c>
       <c r="N12">
-        <v>5.017145000000001</v>
+        <v>6.219723</v>
       </c>
       <c r="O12">
-        <v>0.1147871397276258</v>
+        <v>0.08817313654291985</v>
       </c>
       <c r="P12">
-        <v>0.1147871397276258</v>
+        <v>0.08817313654291985</v>
       </c>
       <c r="Q12">
-        <v>151.56867291888</v>
+        <v>184.2768507708683</v>
       </c>
       <c r="R12">
-        <v>1364.11805626992</v>
+        <v>1658.491656937815</v>
       </c>
       <c r="S12">
-        <v>0.02096309771143528</v>
+        <v>0.01827689972957016</v>
       </c>
       <c r="T12">
-        <v>0.02096309771143528</v>
+        <v>0.01827689972957016</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>90.63043199999998</v>
+        <v>88.88346833333333</v>
       </c>
       <c r="H13">
-        <v>271.891296</v>
+        <v>266.650405</v>
       </c>
       <c r="I13">
-        <v>0.1826258391068707</v>
+        <v>0.2072842188241036</v>
       </c>
       <c r="J13">
-        <v>0.1826258391068707</v>
+        <v>0.2072842188241036</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.978372666666667</v>
+        <v>2.095551333333333</v>
       </c>
       <c r="N13">
-        <v>8.935117999999999</v>
+        <v>6.286654</v>
       </c>
       <c r="O13">
-        <v>0.2044263497165867</v>
+        <v>0.08912197561532777</v>
       </c>
       <c r="P13">
-        <v>0.2044263497165867</v>
+        <v>0.08912197561532777</v>
       </c>
       <c r="Q13">
-        <v>269.931201436992</v>
+        <v>186.2598705772077</v>
       </c>
       <c r="R13">
-        <v>2429.380812932927</v>
+        <v>1676.33883519487</v>
       </c>
       <c r="S13">
-        <v>0.03733353365254623</v>
+        <v>0.01847357909548402</v>
       </c>
       <c r="T13">
-        <v>0.03733353365254625</v>
+        <v>0.01847357909548402</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>146.2303303333333</v>
+        <v>93.106949</v>
       </c>
       <c r="H14">
-        <v>438.690991</v>
+        <v>279.320847</v>
       </c>
       <c r="I14">
-        <v>0.2946630198121519</v>
+        <v>0.2171337544815728</v>
       </c>
       <c r="J14">
-        <v>0.2946630198121519</v>
+        <v>0.2171337544815728</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>9.575242333333334</v>
+        <v>19.001083</v>
       </c>
       <c r="N14">
-        <v>28.725727</v>
+        <v>57.003249</v>
       </c>
       <c r="O14">
-        <v>0.6572152168068958</v>
+        <v>0.8080995339289322</v>
       </c>
       <c r="P14">
-        <v>0.6572152168068958</v>
+        <v>0.8080995339289322</v>
       </c>
       <c r="Q14">
-        <v>1400.190849425051</v>
+        <v>1769.132865825767</v>
       </c>
       <c r="R14">
-        <v>12601.71764482546</v>
+        <v>15922.1957924319</v>
       </c>
       <c r="S14">
-        <v>0.1936570204508181</v>
+        <v>0.1754656857967982</v>
       </c>
       <c r="T14">
-        <v>0.1936570204508181</v>
+        <v>0.1754656857967982</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>146.2303303333333</v>
+        <v>93.106949</v>
       </c>
       <c r="H15">
-        <v>438.690991</v>
+        <v>279.320847</v>
       </c>
       <c r="I15">
-        <v>0.2946630198121519</v>
+        <v>0.2171337544815728</v>
       </c>
       <c r="J15">
-        <v>0.2946630198121519</v>
+        <v>0.2171337544815728</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>1.03026</v>
       </c>
       <c r="O15">
-        <v>0.0235712937488918</v>
+        <v>0.01460535391282033</v>
       </c>
       <c r="P15">
-        <v>0.0235712937488918</v>
+        <v>0.01460535391282033</v>
       </c>
       <c r="Q15">
-        <v>50.21842004307334</v>
+        <v>31.97478842558</v>
       </c>
       <c r="R15">
-        <v>451.96578038766</v>
+        <v>287.77309583022</v>
       </c>
       <c r="S15">
-        <v>0.006945588596927757</v>
+        <v>0.003171315330622809</v>
       </c>
       <c r="T15">
-        <v>0.006945588596927758</v>
+        <v>0.003171315330622809</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>146.2303303333333</v>
+        <v>93.106949</v>
       </c>
       <c r="H16">
-        <v>438.690991</v>
+        <v>279.320847</v>
       </c>
       <c r="I16">
-        <v>0.2946630198121519</v>
+        <v>0.2171337544815728</v>
       </c>
       <c r="J16">
-        <v>0.2946630198121519</v>
+        <v>0.2171337544815728</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.672381666666667</v>
+        <v>2.073241</v>
       </c>
       <c r="N16">
-        <v>5.017145000000001</v>
+        <v>6.219723</v>
       </c>
       <c r="O16">
-        <v>0.1147871397276258</v>
+        <v>0.08817313654291985</v>
       </c>
       <c r="P16">
-        <v>0.1147871397276258</v>
+        <v>0.08817313654291985</v>
       </c>
       <c r="Q16">
-        <v>244.5529235600773</v>
+        <v>193.033144051709</v>
       </c>
       <c r="R16">
-        <v>2200.976312040696</v>
+        <v>1737.298296465381</v>
       </c>
       <c r="S16">
-        <v>0.03382352522774166</v>
+        <v>0.01914536418198056</v>
       </c>
       <c r="T16">
-        <v>0.03382352522774166</v>
+        <v>0.01914536418198056</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>146.2303303333333</v>
+        <v>93.106949</v>
       </c>
       <c r="H17">
-        <v>438.690991</v>
+        <v>279.320847</v>
       </c>
       <c r="I17">
-        <v>0.2946630198121519</v>
+        <v>0.2171337544815728</v>
       </c>
       <c r="J17">
-        <v>0.2946630198121519</v>
+        <v>0.2171337544815728</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.978372666666667</v>
+        <v>2.095551333333333</v>
       </c>
       <c r="N17">
-        <v>8.935117999999999</v>
+        <v>6.286654</v>
       </c>
       <c r="O17">
-        <v>0.2044263497165867</v>
+        <v>0.08912197561532777</v>
       </c>
       <c r="P17">
-        <v>0.2044263497165867</v>
+        <v>0.08912197561532777</v>
       </c>
       <c r="Q17">
-        <v>435.5284189024376</v>
+        <v>195.1103911195487</v>
       </c>
       <c r="R17">
-        <v>3919.755770121938</v>
+        <v>1755.993520075938</v>
       </c>
       <c r="S17">
-        <v>0.06023688553666447</v>
+        <v>0.0193513891721713</v>
       </c>
       <c r="T17">
-        <v>0.06023688553666449</v>
+        <v>0.0193513891721713</v>
       </c>
     </row>
   </sheetData>
